--- a/calculate_date/non_business_days.xlsx
+++ b/calculate_date/non_business_days.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\dev\Python\General\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\dev\technical_training\General\calculate_date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE7D75-3A6B-4D21-B3D7-A352E33A4F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2255C4-411D-4390-9FC1-7AB0CB57C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{FCE92C4D-BFDB-4162-8331-03FDA8839228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FCE92C4D-BFDB-4162-8331-03FDA8839228}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6982ED-A39F-4101-A6F1-437912CB11DD}">
-  <dimension ref="A1:A119"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,595 +449,603 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>45297</v>
+        <v>45661</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>45298</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>45299</v>
+        <v>45668</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>45304</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>45305</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>45311</v>
+        <v>45675</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>45312</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>45318</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>45319</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>45325</v>
+        <v>45689</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>45326</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>45332</v>
+        <v>45696</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>45333</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>45334</v>
+        <v>45699</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>45339</v>
+        <v>45703</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>45340</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>45345</v>
+        <v>45710</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>45346</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>45347</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>45353</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>45354</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>45360</v>
+        <v>45724</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>45361</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>45367</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>45368</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>45371</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>45374</v>
+        <v>45738</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>45375</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>45381</v>
+        <v>45745</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>45382</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>45388</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>45389</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>45395</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>45396</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>45402</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>45403</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>45409</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>45410</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>45411</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>45415</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>45416</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>45417</v>
+        <v>45782</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>45418</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>45423</v>
+        <v>45787</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>45424</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>45430</v>
+        <v>45794</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>45431</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>45437</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>45438</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>45444</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>45445</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>45451</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>45452</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>45458</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>45459</v>
+        <v>45823</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>45465</v>
+        <v>45829</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>45466</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>45472</v>
+        <v>45836</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>45473</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>45479</v>
+        <v>45843</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>45480</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>45486</v>
+        <v>45850</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>45487</v>
+        <v>45851</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>45488</v>
+        <v>45857</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>45493</v>
+        <v>45858</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>45494</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>45500</v>
+        <v>45864</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>45501</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>45507</v>
+        <v>45871</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>45508</v>
+        <v>45872</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>45514</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>45515</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>45516</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>45521</v>
+        <v>45885</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>45522</v>
+        <v>45886</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>45528</v>
+        <v>45892</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>45529</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>45535</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>45536</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>45542</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>45543</v>
+        <v>45907</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>45549</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>45550</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>45551</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>45556</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>45557</v>
+        <v>45921</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>45558</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>45563</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>45564</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>45570</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>45571</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>45577</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>45578</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>45579</v>
+        <v>45943</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>45584</v>
+        <v>45948</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>45585</v>
+        <v>45949</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>45591</v>
+        <v>45955</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
-        <v>45592</v>
+        <v>45956</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>45598</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
-        <v>45599</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
-        <v>45600</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
-        <v>45605</v>
+        <v>45969</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>45606</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
-        <v>45612</v>
+        <v>45976</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
-        <v>45613</v>
+        <v>45977</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
-        <v>45619</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>45620</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>45626</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>45627</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>45633</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>45634</v>
+        <v>45997</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
-        <v>45640</v>
+        <v>45998</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>45641</v>
+        <v>46004</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>45647</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>45648</v>
+        <v>46011</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>45654</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>45655</v>
+        <v>46018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>46019</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A143">
+    <sortCondition ref="A2:A143"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calculate_date/non_business_days.xlsx
+++ b/calculate_date/non_business_days.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\dev\technical_training\General\calculate_date\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\Git\Python\calculate_date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2255C4-411D-4390-9FC1-7AB0CB57C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F279D-E8C0-4F8A-B17A-3ADCCD2238EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FCE92C4D-BFDB-4162-8331-03FDA8839228}"/>
+    <workbookView xWindow="3510" yWindow="2115" windowWidth="26295" windowHeight="18765" xr2:uid="{FCE92C4D-BFDB-4162-8331-03FDA8839228}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="非営業日" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/calculate_date/non_business_days.xlsx
+++ b/calculate_date/non_business_days.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junichi\Git\Python\calculate_date\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F279D-E8C0-4F8A-B17A-3ADCCD2238EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18DEF0-6FAF-4384-A8C8-F2FCBD3ADE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2115" windowWidth="26295" windowHeight="18765" xr2:uid="{FCE92C4D-BFDB-4162-8331-03FDA8839228}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{FCE92C4D-BFDB-4162-8331-03FDA8839228}"/>
   </bookViews>
   <sheets>
-    <sheet name="非営業日" sheetId="1" r:id="rId1"/>
+    <sheet name="非営業日マスタ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
